--- a/icd_files/68527.xlsx
+++ b/icd_files/68527.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0781B9A3-5B2C-48F7-A463-665B6002B59F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E117976-56EB-453F-8A94-2C99134DE951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="691">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -1470,21 +1470,153 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Alteplase (Catheter Clearance)</t>
+  </si>
+  <si>
+    <t>Syringe (0.9% Sodium Chloride)</t>
+  </si>
+  <si>
+    <t>Ibuprofen</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Piperacillin-Tazobactam</t>
+  </si>
+  <si>
     <t>0.9% Sodium Chloride</t>
   </si>
   <si>
-    <t>5% Dextrose</t>
+    <t>Acetaminophen IV</t>
+  </si>
+  <si>
+    <t>Warfarin</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>DiphenhydrAMINE</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Bisacodyl</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride (Mini Bag Plus)</t>
   </si>
   <si>
     <t>CefePIME</t>
   </si>
   <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Silver Nitrate Applicator</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin IV</t>
+  </si>
+  <si>
+    <t>Ampicillin Sodium</t>
+  </si>
+  <si>
+    <t>Chlorhexidine Gluconate 0.12% Oral Rinse</t>
+  </si>
+  <si>
+    <t>Docusate Sodium</t>
+  </si>
+  <si>
+    <t>Polyethylene Glycol</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>Artificial Tear Ointment</t>
+  </si>
+  <si>
+    <t>Docusate Sodium (Liquid)</t>
+  </si>
+  <si>
+    <t>Erythromycin 0.5% Ophth Oint</t>
+  </si>
+  <si>
+    <t>Clotrimazole Cream</t>
+  </si>
+  <si>
+    <t>CeftriaXONE</t>
+  </si>
+  <si>
+    <t>D5 1/2NS</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Glucagon</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
     <t>150 mL</t>
   </si>
   <si>
+    <t>50 mL</t>
+  </si>
+  <si>
+    <t>4.5 BAG</t>
+  </si>
+  <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>650 TAB</t>
+  </si>
+  <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>250 mL</t>
+  </si>
+  <si>
     <t>14:15</t>
   </si>
   <si>
@@ -1503,6 +1635,15 @@
     <t>100 mL</t>
   </si>
   <si>
+    <t>400 BAG</t>
+  </si>
+  <si>
+    <t>2 VIAL</t>
+  </si>
+  <si>
+    <t>15 UDCUP</t>
+  </si>
+  <si>
     <t>02:00</t>
   </si>
   <si>
@@ -1518,15 +1659,27 @@
     <t>16:00</t>
   </si>
   <si>
+    <t>100 CAP</t>
+  </si>
+  <si>
+    <t>17 PKT</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
+    <t>100 UDCUP</t>
+  </si>
+  <si>
     <t>12:44</t>
   </si>
   <si>
-    <t>250 mL</t>
-  </si>
-  <si>
     <t>2 mL</t>
   </si>
   <si>
@@ -1536,6 +1689,9 @@
     <t>100 BAG</t>
   </si>
   <si>
+    <t>0.5 TUBE</t>
+  </si>
+  <si>
     <t>01:48</t>
   </si>
   <si>
@@ -1566,9 +1722,15 @@
     <t>08:18</t>
   </si>
   <si>
+    <t>2000-3900 mL</t>
+  </si>
+  <si>
     <t>07:40</t>
   </si>
   <si>
+    <t>300 BAG</t>
+  </si>
+  <si>
     <t>07:00</t>
   </si>
   <si>
@@ -1578,9 +1740,6 @@
     <t>15:00</t>
   </si>
   <si>
-    <t>1000 mL</t>
-  </si>
-  <si>
     <t>17:00</t>
   </si>
   <si>
@@ -1590,12 +1749,24 @@
     <t>21:00</t>
   </si>
   <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
     <t>04:39</t>
   </si>
   <si>
     <t>Inappropriate Words</t>
   </si>
   <si>
+    <t>25 UDCUP</t>
+  </si>
+  <si>
+    <t>400 mL</t>
+  </si>
+  <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
     <t>09:13</t>
   </si>
   <si>
@@ -1632,10 +1803,25 @@
     <t>20:27</t>
   </si>
   <si>
+    <t>12.5 UDCUP</t>
+  </si>
+  <si>
+    <t>12.5 mL</t>
+  </si>
+  <si>
     <t>00:08</t>
   </si>
   <si>
+    <t>1 STCK</t>
+  </si>
+  <si>
     <t>16:33</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
+    <t>600 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -6602,7 +6788,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000000-F98E-4C4A-B583-B7130F517DFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9199,7 +9385,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000001-F98E-4C4A-B583-B7130F517DFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11796,7 +11982,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000002-F98E-4C4A-B583-B7130F517DFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14531,7 +14717,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000003-F98E-4C4A-B583-B7130F517DFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17260,7 +17446,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000004-F98E-4C4A-B583-B7130F517DFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19062,7 +19248,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000005-F98E-4C4A-B583-B7130F517DFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20499,7 +20685,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000006-F98E-4C4A-B583-B7130F517DFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21936,7 +22122,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000007-F98E-4C4A-B583-B7130F517DFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23373,7 +23559,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000008-F98E-4C4A-B583-B7130F517DFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23816,7 +24002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F0E904-8993-4293-BB33-3B907C1CF87C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CDF3C4-9839-4515-AC22-0DA302B8DC74}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -23841,7 +24027,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -23854,7 +24040,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>539</v>
+        <v>601</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -23867,7 +24053,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -23880,7 +24066,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -23893,27 +24079,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -23941,7 +24127,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -23969,11 +24155,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -23996,7 +24182,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24033,7 +24219,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -24056,14 +24242,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -24086,14 +24272,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -24116,14 +24302,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -24146,14 +24332,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -24176,16 +24362,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -24208,14 +24394,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -24238,10 +24424,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -24249,7 +24435,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -24261,7 +24447,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -24284,7 +24470,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -24300,11 +24486,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>562</v>
+        <v>624</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -24327,7 +24513,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>562</v>
+        <v>624</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -24345,7 +24531,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>563</v>
+        <v>625</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -24368,7 +24554,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>563</v>
+        <v>625</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -24387,7 +24573,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>564</v>
+        <v>626</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -24410,10 +24596,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>564</v>
+        <v>626</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>565</v>
+        <v>627</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -24431,7 +24617,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>566</v>
+        <v>628</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -24454,52 +24640,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>566</v>
+        <v>628</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>568</v>
+        <v>630</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>569</v>
+        <v>631</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>570</v>
+        <v>632</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>578</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>579</v>
+        <v>641</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>580</v>
+        <v>642</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -24522,53 +24708,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>580</v>
+        <v>642</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>587</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -24591,43 +24777,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -24635,7 +24821,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>568</v>
+        <v>630</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -24658,43 +24844,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>568</v>
+        <v>630</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -24702,7 +24888,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>569</v>
+        <v>631</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -24725,43 +24911,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>569</v>
+        <v>631</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -24769,7 +24955,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>570</v>
+        <v>632</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -24792,43 +24978,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>570</v>
+        <v>632</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -24836,7 +25022,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -24859,43 +25045,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -24903,7 +25089,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -24926,43 +25112,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -24970,7 +25156,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -24993,43 +25179,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -25037,7 +25223,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -25060,43 +25246,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -25104,7 +25290,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -25127,43 +25313,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -25171,7 +25357,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -25194,43 +25380,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -25238,7 +25424,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -25261,43 +25447,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -25305,7 +25491,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -25328,7 +25514,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -25341,10 +25527,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -25352,7 +25538,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>588</v>
+        <v>650</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -25375,14 +25561,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>588</v>
+        <v>650</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>589</v>
+        <v>651</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -25397,7 +25583,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -25420,7 +25606,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -25440,7 +25626,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>591</v>
+        <v>653</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -25463,7 +25649,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>591</v>
+        <v>653</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -25483,7 +25669,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>592</v>
+        <v>654</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -25506,7 +25692,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>592</v>
+        <v>654</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -25524,11 +25710,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>593</v>
+        <v>655</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -25551,14 +25737,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>594</v>
+        <v>656</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -25581,14 +25767,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -25611,14 +25797,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -25641,14 +25827,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -25671,14 +25857,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -25701,14 +25887,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -25731,10 +25917,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -25751,7 +25937,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>588</v>
+        <v>650</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -25774,7 +25960,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>588</v>
+        <v>650</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -25792,7 +25978,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -25815,7 +26001,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -25833,7 +26019,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>591</v>
+        <v>653</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -25856,14 +26042,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>591</v>
+        <v>653</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>592</v>
+        <v>654</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -25886,14 +26072,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>592</v>
+        <v>654</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>596</v>
+        <v>658</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -25916,24 +26102,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>596</v>
+        <v>658</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>597</v>
+        <v>659</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>598</v>
+        <v>660</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>599</v>
+        <v>661</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -25956,7 +26142,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>599</v>
+        <v>661</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -25965,7 +26151,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>600</v>
+        <v>662</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -25988,14 +26174,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>600</v>
+        <v>662</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>601</v>
+        <v>663</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -26003,7 +26189,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>602</v>
+        <v>664</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -26026,7 +26212,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>602</v>
+        <v>664</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -26035,7 +26221,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>603</v>
+        <v>665</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -26058,14 +26244,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>603</v>
+        <v>665</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>604</v>
+        <v>666</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -26073,7 +26259,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>605</v>
+        <v>667</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -26096,7 +26282,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>605</v>
+        <v>667</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -26105,7 +26291,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>606</v>
+        <v>668</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -26128,24 +26314,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>606</v>
+        <v>668</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>607</v>
+        <v>669</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>608</v>
+        <v>670</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>609</v>
+        <v>671</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -26168,7 +26354,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>609</v>
+        <v>671</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -26177,7 +26363,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>610</v>
+        <v>672</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -26200,22 +26386,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>610</v>
+        <v>672</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>611</v>
+        <v>673</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -26223,7 +26409,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>612</v>
+        <v>674</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -26246,7 +26432,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>612</v>
+        <v>674</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -26259,7 +26445,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>613</v>
+        <v>675</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -26282,32 +26468,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>613</v>
+        <v>675</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>614</v>
+        <v>676</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>615</v>
+        <v>677</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>616</v>
+        <v>678</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -26330,7 +26516,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>616</v>
+        <v>678</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -26339,7 +26525,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>617</v>
+        <v>679</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -26362,14 +26548,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>617</v>
+        <v>679</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>618</v>
+        <v>680</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -26377,7 +26563,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>619</v>
+        <v>681</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -26400,14 +26586,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>619</v>
+        <v>681</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>620</v>
+        <v>682</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -26430,12 +26616,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>620</v>
+        <v>682</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>621</v>
+        <v>683</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -26463,7 +26649,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>622</v>
+        <v>684</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -26490,13 +26676,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>623</v>
+        <v>685</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>624</v>
+        <v>686</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -26524,7 +26710,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>625</v>
+        <v>687</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -26636,7 +26822,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>626</v>
+        <v>688</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -26664,7 +26850,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>627</v>
+        <v>689</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -26692,7 +26878,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>628</v>
+        <v>690</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -37191,13 +37377,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:DC38"/>
+  <dimension ref="A30:DO71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>458</v>
       </c>
@@ -37205,7 +37391,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:119" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>460</v>
       </c>
@@ -37216,19 +37402,19 @@
         <v>460</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>461</v>
@@ -37237,1293 +37423,1860 @@
         <v>461</v>
       </c>
       <c r="L31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="R31" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="V31" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="W31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="X31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="Y31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="AA31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="AB31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="AC31" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="AD31" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="AE31" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="AF31" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AG31" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AI31" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AK31" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="AE31" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AF31" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AG31" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AH31" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AI31" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="AL31" s="1" t="s">
         <v>466</v>
       </c>
       <c r="AM31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AV31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="AW31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="AX31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="AY31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="AZ31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="BB31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AT31" s="1" t="s">
+      <c r="BC31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AU31" s="1" t="s">
+      <c r="BD31" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AV31" s="1" t="s">
+      <c r="BE31" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AW31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AX31" s="1" t="s">
+      <c r="BG31" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AY31" s="1" t="s">
+      <c r="BH31" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="BI31" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="BJ31" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="BB31" s="1" t="s">
+      <c r="BK31" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="BL31" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="BD31" s="1" t="s">
+      <c r="BM31" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="BE31" s="1" t="s">
+      <c r="BN31" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="BO31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BF31" s="1" t="s">
+      <c r="BP31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BG31" s="1" t="s">
+      <c r="BQ31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BH31" s="1" t="s">
+      <c r="BR31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BI31" s="1" t="s">
+      <c r="BS31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BJ31" s="1" t="s">
+      <c r="BT31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BK31" s="1" t="s">
+      <c r="BU31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BL31" s="1" t="s">
+      <c r="BV31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BM31" s="1" t="s">
+      <c r="BW31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BN31" s="1" t="s">
+      <c r="BX31" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BO31" s="1" t="s">
+      <c r="BY31" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BP31" s="1" t="s">
+      <c r="BZ31" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BQ31" s="1" t="s">
+      <c r="CA31" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BR31" s="1" t="s">
+      <c r="CB31" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BS31" s="1" t="s">
+      <c r="CC31" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BT31" s="1" t="s">
+      <c r="CD31" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="BU31" s="1" t="s">
+      <c r="CE31" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="BV31" s="1" t="s">
+      <c r="CF31" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="BW31" s="1" t="s">
+      <c r="CG31" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="BX31" s="1" t="s">
+      <c r="CH31" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="BY31" s="1" t="s">
+      <c r="CI31" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="BZ31" s="1" t="s">
+      <c r="CJ31" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="CA31" s="1" t="s">
+      <c r="CK31" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="CB31" s="1" t="s">
+      <c r="CL31" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="CC31" s="1" t="s">
+      <c r="CM31" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="CD31" s="1" t="s">
+      <c r="CN31" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CE31" s="1" t="s">
+      <c r="CO31" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CF31" s="1" t="s">
+      <c r="CP31" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CG31" s="1" t="s">
+      <c r="CQ31" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CH31" s="1" t="s">
+      <c r="CR31" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CI31" s="1" t="s">
+      <c r="CS31" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CJ31" s="1" t="s">
+      <c r="CT31" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CK31" s="1" t="s">
+      <c r="CU31" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="CL31" s="1" t="s">
+      <c r="CV31" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="CM31" s="1" t="s">
+      <c r="CW31" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="CN31" s="1" t="s">
+      <c r="CX31" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="CO31" s="1" t="s">
+      <c r="CY31" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="CP31" s="1" t="s">
+      <c r="CZ31" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="DA31" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="CQ31" s="1" t="s">
+      <c r="DB31" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="CR31" s="1" t="s">
+      <c r="DC31" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="CS31" s="1" t="s">
+      <c r="DD31" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="CT31" s="1" t="s">
+      <c r="DE31" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="CU31" s="1" t="s">
+      <c r="DF31" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="CV31" s="1" t="s">
+      <c r="DG31" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="CW31" s="1" t="s">
+      <c r="DH31" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="CX31" s="1" t="s">
+      <c r="DI31" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="CY31" s="1" t="s">
+      <c r="DJ31" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="CZ31" s="1" t="s">
+      <c r="DK31" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="DL31" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="DA31" s="1" t="s">
+      <c r="DM31" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="DB31" s="1" t="s">
+      <c r="DN31" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="DC31" s="1" t="s">
+      <c r="DO31" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="C32" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="D32" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="E32" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="F32" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="G32" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="H32" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="I32" t="s">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="J32" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="K32" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="L32" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="M32" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="N32" t="s">
-        <v>497</v>
+        <v>542</v>
       </c>
       <c r="O32" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="P32" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="Q32" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="R32" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="S32" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="T32" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="U32" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="V32" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="W32" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="X32" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="Y32" t="s">
-        <v>497</v>
+        <v>542</v>
       </c>
       <c r="Z32" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="AA32" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="AB32" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="AC32" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="AD32" t="s">
-        <v>502</v>
+        <v>549</v>
       </c>
       <c r="AE32" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="AF32" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="AG32" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="AH32" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="AI32" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="AJ32" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="AK32" t="s">
-        <v>508</v>
+        <v>553</v>
       </c>
       <c r="AL32" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="AM32" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="AN32" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="AO32" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="AP32" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="AQ32" t="s">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="AR32" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="AS32" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="AT32" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="AU32" t="s">
-        <v>485</v>
+        <v>562</v>
       </c>
       <c r="AV32" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="AW32" t="s">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="AX32" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="AY32" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="AZ32" t="s">
-        <v>498</v>
+        <v>565</v>
       </c>
       <c r="BA32" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="BB32" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="BC32" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="BD32" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="BE32" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="BF32" t="s">
-        <v>485</v>
+        <v>567</v>
       </c>
       <c r="BG32" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="BH32" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="BI32" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="BJ32" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="BK32" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="BL32" t="s">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="BM32" t="s">
-        <v>521</v>
+        <v>571</v>
       </c>
       <c r="BN32" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="BO32" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="BP32" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="BQ32" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="BR32" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="BS32" t="s">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="BT32" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="BU32" t="s">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="BV32" t="s">
-        <v>524</v>
+        <v>573</v>
       </c>
       <c r="BW32" t="s">
-        <v>525</v>
+        <v>574</v>
       </c>
       <c r="BX32" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="BY32" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="BZ32" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="CA32" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="CB32" t="s">
-        <v>497</v>
+        <v>544</v>
       </c>
       <c r="CC32" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="CD32" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="CE32" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="CF32" t="s">
-        <v>533</v>
+        <v>581</v>
       </c>
       <c r="CG32" t="s">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="CH32" t="s">
-        <v>496</v>
+        <v>584</v>
       </c>
       <c r="CI32" t="s">
-        <v>497</v>
+        <v>585</v>
       </c>
       <c r="CJ32" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="CK32" t="s">
-        <v>536</v>
+        <v>586</v>
       </c>
       <c r="CL32" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="CM32" t="s">
-        <v>496</v>
+        <v>587</v>
       </c>
       <c r="CN32" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="CO32" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="CP32" t="s">
-        <v>485</v>
+        <v>590</v>
       </c>
       <c r="CQ32" t="s">
-        <v>495</v>
+        <v>542</v>
       </c>
       <c r="CR32" t="s">
-        <v>496</v>
+        <v>543</v>
       </c>
       <c r="CS32" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="CT32" t="s">
-        <v>490</v>
+        <v>592</v>
       </c>
       <c r="CU32" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="CV32" t="s">
-        <v>495</v>
+        <v>595</v>
       </c>
       <c r="CW32" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="CX32" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="CY32" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="CZ32" t="s">
-        <v>485</v>
+        <v>574</v>
       </c>
       <c r="DA32" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="DB32" t="s">
-        <v>495</v>
+        <v>542</v>
       </c>
       <c r="DC32" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="33" spans="1:107" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>597</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>534</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>518</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>549</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>542</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>543</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>544</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>534</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>518</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>549</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>542</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C33" t="s">
-        <v>488</v>
-      </c>
-      <c r="D33" t="s">
-        <v>488</v>
-      </c>
-      <c r="F33" t="s">
-        <v>488</v>
-      </c>
-      <c r="G33" t="s">
-        <v>488</v>
-      </c>
       <c r="H33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="I33" t="s">
-        <v>488</v>
-      </c>
-      <c r="J33" t="s">
-        <v>488</v>
-      </c>
-      <c r="K33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="L33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="M33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="N33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="O33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="P33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="Q33" t="s">
-        <v>488</v>
-      </c>
-      <c r="R33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="S33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="T33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="U33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="V33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="W33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="X33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="Y33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="Z33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AA33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AB33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AC33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AD33" t="s">
-        <v>488</v>
+        <v>532</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>532</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>532</v>
       </c>
       <c r="AG33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AH33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AI33" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="AJ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AK33" t="s">
-        <v>509</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>488</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>488</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>488</v>
+        <v>532</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>532</v>
       </c>
       <c r="AQ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AR33" t="s">
-        <v>488</v>
+        <v>559</v>
       </c>
       <c r="AS33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AT33" t="s">
-        <v>507</v>
+        <v>561</v>
       </c>
       <c r="AU33" t="s">
-        <v>488</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AW33" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="AX33" t="s">
-        <v>488</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AZ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BA33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BB33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BC33" t="s">
-        <v>488</v>
+        <v>559</v>
       </c>
       <c r="BD33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BE33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BF33" t="s">
-        <v>488</v>
+        <v>559</v>
       </c>
       <c r="BG33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BH33" t="s">
-        <v>488</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BJ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BK33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BL33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BM33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BN33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BO33" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="BP33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BQ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BR33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BS33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BT33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BU33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BV33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BW33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BX33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BY33" t="s">
-        <v>488</v>
+        <v>577</v>
       </c>
       <c r="BZ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CA33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CB33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CC33" t="s">
-        <v>488</v>
+        <v>532</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>532</v>
       </c>
       <c r="CE33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CF33" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="CG33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CH33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CI33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CJ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CK33" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="CL33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CM33" t="s">
-        <v>488</v>
-      </c>
-      <c r="CN33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CO33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CP33" t="s">
-        <v>488</v>
+        <v>591</v>
       </c>
       <c r="CQ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CR33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CS33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CT33" t="s">
-        <v>488</v>
-      </c>
-      <c r="CU33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CV33" t="s">
-        <v>488</v>
+        <v>559</v>
       </c>
       <c r="CW33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CX33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CY33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CZ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="DA33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="DB33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="DC33" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="34" spans="1:107" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+      <c r="DD33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DG33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DH33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DI33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DJ33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DK33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DL33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DM33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DN33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DO33" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C34" t="s">
-        <v>489</v>
-      </c>
-      <c r="D34" t="s">
-        <v>491</v>
-      </c>
-      <c r="F34" t="s">
-        <v>489</v>
-      </c>
-      <c r="G34" t="s">
-        <v>491</v>
-      </c>
       <c r="H34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="I34" t="s">
-        <v>491</v>
-      </c>
-      <c r="J34" t="s">
-        <v>491</v>
-      </c>
-      <c r="K34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="L34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="M34" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="N34" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="O34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="P34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="Q34" t="s">
-        <v>489</v>
-      </c>
-      <c r="R34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="S34" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="T34" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="U34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="V34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="W34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="X34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="Y34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="Z34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="AA34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="AB34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AC34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AD34" t="s">
-        <v>489</v>
+        <v>533</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>533</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>533</v>
       </c>
       <c r="AG34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AH34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AI34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AJ34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AK34" t="s">
-        <v>489</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>489</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>489</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AP34" t="s">
-        <v>489</v>
+        <v>533</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>533</v>
       </c>
       <c r="AR34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AS34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AT34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AU34" t="s">
-        <v>489</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AW34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AX34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AY34" t="s">
-        <v>489</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BA34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BB34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="BC34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="BD34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BE34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BF34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BG34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BH34" t="s">
-        <v>489</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="BJ34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="BK34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="BL34" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="BM34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="BN34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BO34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BP34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BQ34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BR34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BS34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="BT34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="BU34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="BV34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="BW34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="BX34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="BY34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="BZ34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="CA34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="CB34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="CC34" t="s">
-        <v>531</v>
+        <v>533</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>533</v>
       </c>
       <c r="CE34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="CF34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="CG34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CH34" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="CI34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CJ34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CK34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CL34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CM34" t="s">
-        <v>526</v>
-      </c>
-      <c r="CN34" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="CO34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CP34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CQ34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CR34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CS34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CT34" t="s">
-        <v>526</v>
-      </c>
-      <c r="CU34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CV34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CW34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CX34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CY34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CZ34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="DA34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="DB34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="DC34" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:107" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+      <c r="DD34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DE34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DG34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DH34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DI34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DJ34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DK34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DL34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DM34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DN34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DO34" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="36" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E36" t="s">
-        <v>492</v>
-      </c>
-      <c r="V36" t="s">
-        <v>492</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>503</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>503</v>
-      </c>
-      <c r="BE36" t="s">
-        <v>511</v>
-      </c>
-      <c r="BF36" t="s">
-        <v>518</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>518</v>
-      </c>
-      <c r="CD36" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="37" spans="1:107" x14ac:dyDescent="0.3">
+      <c r="DF36" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B37" t="s">
-        <v>486</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>500</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>500</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>500</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>511</v>
-      </c>
-      <c r="CD37" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="38" spans="1:107" x14ac:dyDescent="0.3">
+      <c r="BD37" t="s">
+        <v>552</v>
+      </c>
+      <c r="DF37" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="38" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="DF38" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B40" t="s">
+        <v>519</v>
+      </c>
+      <c r="C40" t="s">
+        <v>519</v>
+      </c>
+      <c r="D40" t="s">
+        <v>519</v>
+      </c>
+      <c r="E40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F40" t="s">
+        <v>530</v>
+      </c>
+      <c r="G40" t="s">
+        <v>530</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>530</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>530</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>530</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>529</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>529</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>563</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>530</v>
+      </c>
+      <c r="CN40" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="42" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B42" t="s">
+        <v>520</v>
+      </c>
+      <c r="C42" t="s">
+        <v>520</v>
+      </c>
+      <c r="D42" t="s">
+        <v>529</v>
+      </c>
+      <c r="E42" t="s">
+        <v>520</v>
+      </c>
+      <c r="F42" t="s">
+        <v>520</v>
+      </c>
+      <c r="G42" t="s">
+        <v>529</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>529</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="43" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B43" t="s">
+        <v>521</v>
+      </c>
+      <c r="C43" t="s">
+        <v>521</v>
+      </c>
+      <c r="D43" t="s">
+        <v>521</v>
+      </c>
+      <c r="E43" t="s">
+        <v>521</v>
+      </c>
+      <c r="F43" t="s">
+        <v>521</v>
+      </c>
+      <c r="G43" t="s">
+        <v>521</v>
+      </c>
+      <c r="BI43" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J44" t="s">
+        <v>536</v>
+      </c>
+      <c r="K44" t="s">
+        <v>536</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>536</v>
+      </c>
+      <c r="BO44" t="s">
+        <v>523</v>
+      </c>
+      <c r="BP44" t="s">
+        <v>563</v>
+      </c>
+      <c r="BQ44" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="BO45" t="s">
+        <v>525</v>
+      </c>
+      <c r="BP45" t="s">
+        <v>525</v>
+      </c>
+      <c r="BQ45" t="s">
+        <v>525</v>
+      </c>
+      <c r="BX45" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="46" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="BX46" t="s">
+        <v>575</v>
+      </c>
+      <c r="CN46" t="s">
+        <v>575</v>
+      </c>
+      <c r="CU46" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="47" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BX47" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="CD48" t="s">
+        <v>578</v>
+      </c>
+      <c r="CU48" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="CD49" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="50" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="CD50" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="51" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>554</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>554</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>554</v>
+      </c>
+      <c r="CN51" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>552</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>552</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>552</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>552</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>552</v>
+      </c>
+      <c r="CN52" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="CU53" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="54" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="DA54" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="AE38" t="s">
-        <v>501</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>501</v>
-      </c>
-      <c r="CD38" t="s">
-        <v>501</v>
+      <c r="J55" t="s">
+        <v>537</v>
+      </c>
+      <c r="K55" t="s">
+        <v>537</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>537</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>537</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>537</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="56" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J56" t="s">
+        <v>538</v>
+      </c>
+      <c r="K56" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="57" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J57" t="s">
+        <v>539</v>
+      </c>
+      <c r="K57" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="58" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="R58" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="59" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="R59" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="60" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R60" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="W61" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="62" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="63" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>555</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>555</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>555</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="64" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B65" t="s">
+        <v>522</v>
+      </c>
+      <c r="C65" t="s">
+        <v>522</v>
+      </c>
+      <c r="D65" t="s">
+        <v>522</v>
+      </c>
+      <c r="E65" t="s">
+        <v>522</v>
+      </c>
+      <c r="F65" t="s">
+        <v>522</v>
+      </c>
+      <c r="G65" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B66" t="s">
+        <v>523</v>
+      </c>
+      <c r="C66" t="s">
+        <v>523</v>
+      </c>
+      <c r="D66" t="s">
+        <v>523</v>
+      </c>
+      <c r="E66" t="s">
+        <v>523</v>
+      </c>
+      <c r="F66" t="s">
+        <v>523</v>
+      </c>
+      <c r="G66" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B67" t="s">
+        <v>524</v>
+      </c>
+      <c r="C67" t="s">
+        <v>524</v>
+      </c>
+      <c r="D67" t="s">
+        <v>524</v>
+      </c>
+      <c r="E67" t="s">
+        <v>524</v>
+      </c>
+      <c r="F67" t="s">
+        <v>524</v>
+      </c>
+      <c r="G67" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B68" t="s">
+        <v>525</v>
+      </c>
+      <c r="C68" t="s">
+        <v>525</v>
+      </c>
+      <c r="D68" t="s">
+        <v>525</v>
+      </c>
+      <c r="E68" t="s">
+        <v>525</v>
+      </c>
+      <c r="F68" t="s">
+        <v>525</v>
+      </c>
+      <c r="G68" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B69" t="s">
+        <v>526</v>
+      </c>
+      <c r="C69" t="s">
+        <v>526</v>
+      </c>
+      <c r="D69" t="s">
+        <v>526</v>
+      </c>
+      <c r="E69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F69" t="s">
+        <v>526</v>
+      </c>
+      <c r="G69" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B70" t="s">
+        <v>527</v>
+      </c>
+      <c r="C70" t="s">
+        <v>527</v>
+      </c>
+      <c r="D70" t="s">
+        <v>527</v>
+      </c>
+      <c r="E70" t="s">
+        <v>527</v>
+      </c>
+      <c r="F70" t="s">
+        <v>527</v>
+      </c>
+      <c r="G70" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B71" t="s">
+        <v>528</v>
+      </c>
+      <c r="C71" t="s">
+        <v>528</v>
+      </c>
+      <c r="D71" t="s">
+        <v>528</v>
+      </c>
+      <c r="E71" t="s">
+        <v>528</v>
+      </c>
+      <c r="F71" t="s">
+        <v>528</v>
+      </c>
+      <c r="G71" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/68527.xlsx
+++ b/icd_files/68527.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0781B9A3-5B2C-48F7-A463-665B6002B59F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53233C75-EB12-424E-8B97-8F4510A9B0F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="691">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -1470,21 +1470,153 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Alteplase (Catheter Clearance)</t>
+  </si>
+  <si>
+    <t>Syringe (0.9% Sodium Chloride)</t>
+  </si>
+  <si>
+    <t>Ibuprofen</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Piperacillin-Tazobactam</t>
+  </si>
+  <si>
     <t>0.9% Sodium Chloride</t>
   </si>
   <si>
-    <t>5% Dextrose</t>
+    <t>Acetaminophen IV</t>
+  </si>
+  <si>
+    <t>Warfarin</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>DiphenhydrAMINE</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Bisacodyl</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride (Mini Bag Plus)</t>
   </si>
   <si>
     <t>CefePIME</t>
   </si>
   <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Silver Nitrate Applicator</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin IV</t>
+  </si>
+  <si>
+    <t>Ampicillin Sodium</t>
+  </si>
+  <si>
+    <t>Chlorhexidine Gluconate 0.12% Oral Rinse</t>
+  </si>
+  <si>
+    <t>Docusate Sodium</t>
+  </si>
+  <si>
+    <t>Polyethylene Glycol</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>Artificial Tear Ointment</t>
+  </si>
+  <si>
+    <t>Docusate Sodium (Liquid)</t>
+  </si>
+  <si>
+    <t>Erythromycin 0.5% Ophth Oint</t>
+  </si>
+  <si>
+    <t>Clotrimazole Cream</t>
+  </si>
+  <si>
+    <t>CeftriaXONE</t>
+  </si>
+  <si>
+    <t>D5 1/2NS</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Glucagon</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
     <t>150 mL</t>
   </si>
   <si>
+    <t>50 mL</t>
+  </si>
+  <si>
+    <t>4.5 BAG</t>
+  </si>
+  <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>650 TAB</t>
+  </si>
+  <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>250 mL</t>
+  </si>
+  <si>
     <t>14:15</t>
   </si>
   <si>
@@ -1503,6 +1635,15 @@
     <t>100 mL</t>
   </si>
   <si>
+    <t>400 BAG</t>
+  </si>
+  <si>
+    <t>2 VIAL</t>
+  </si>
+  <si>
+    <t>15 UDCUP</t>
+  </si>
+  <si>
     <t>02:00</t>
   </si>
   <si>
@@ -1518,15 +1659,27 @@
     <t>16:00</t>
   </si>
   <si>
+    <t>100 CAP</t>
+  </si>
+  <si>
+    <t>17 PKT</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
+    <t>100 UDCUP</t>
+  </si>
+  <si>
     <t>12:44</t>
   </si>
   <si>
-    <t>250 mL</t>
-  </si>
-  <si>
     <t>2 mL</t>
   </si>
   <si>
@@ -1536,6 +1689,9 @@
     <t>100 BAG</t>
   </si>
   <si>
+    <t>0.5 TUBE</t>
+  </si>
+  <si>
     <t>01:48</t>
   </si>
   <si>
@@ -1566,9 +1722,15 @@
     <t>08:18</t>
   </si>
   <si>
+    <t>2000-3900 mL</t>
+  </si>
+  <si>
     <t>07:40</t>
   </si>
   <si>
+    <t>300 BAG</t>
+  </si>
+  <si>
     <t>07:00</t>
   </si>
   <si>
@@ -1578,9 +1740,6 @@
     <t>15:00</t>
   </si>
   <si>
-    <t>1000 mL</t>
-  </si>
-  <si>
     <t>17:00</t>
   </si>
   <si>
@@ -1590,12 +1749,24 @@
     <t>21:00</t>
   </si>
   <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
     <t>04:39</t>
   </si>
   <si>
     <t>Inappropriate Words</t>
   </si>
   <si>
+    <t>25 UDCUP</t>
+  </si>
+  <si>
+    <t>400 mL</t>
+  </si>
+  <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
     <t>09:13</t>
   </si>
   <si>
@@ -1632,10 +1803,25 @@
     <t>20:27</t>
   </si>
   <si>
+    <t>12.5 UDCUP</t>
+  </si>
+  <si>
+    <t>12.5 mL</t>
+  </si>
+  <si>
     <t>00:08</t>
   </si>
   <si>
+    <t>1 STCK</t>
+  </si>
+  <si>
     <t>16:33</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
+    <t>600 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -6602,7 +6788,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000000-ECA5-40DB-BACC-307237235A0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9199,7 +9385,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000001-ECA5-40DB-BACC-307237235A0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11796,7 +11982,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000002-ECA5-40DB-BACC-307237235A0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14531,7 +14717,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000003-ECA5-40DB-BACC-307237235A0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17260,7 +17446,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000004-ECA5-40DB-BACC-307237235A0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19062,7 +19248,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000005-ECA5-40DB-BACC-307237235A0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20499,7 +20685,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000006-ECA5-40DB-BACC-307237235A0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21936,7 +22122,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000007-ECA5-40DB-BACC-307237235A0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23373,7 +23559,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-B40B-42EE-9919-99300838DF03}"/>
+              <c16:uniqueId val="{00000008-ECA5-40DB-BACC-307237235A0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23816,7 +24002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F0E904-8993-4293-BB33-3B907C1CF87C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC505402-3808-40A8-8AA6-31CCC4FA435C}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -23841,7 +24027,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -23854,7 +24040,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>539</v>
+        <v>601</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -23867,7 +24053,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -23880,7 +24066,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -23893,27 +24079,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -23941,7 +24127,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -23969,11 +24155,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -23996,7 +24182,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24033,7 +24219,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -24056,14 +24242,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -24086,14 +24272,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -24116,14 +24302,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -24146,14 +24332,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -24176,16 +24362,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -24208,14 +24394,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -24238,10 +24424,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -24249,7 +24435,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -24261,7 +24447,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -24284,7 +24470,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -24300,11 +24486,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>562</v>
+        <v>624</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -24327,7 +24513,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>562</v>
+        <v>624</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -24345,7 +24531,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>563</v>
+        <v>625</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -24368,7 +24554,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>563</v>
+        <v>625</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -24387,7 +24573,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>564</v>
+        <v>626</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -24410,10 +24596,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>564</v>
+        <v>626</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>565</v>
+        <v>627</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -24431,7 +24617,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>566</v>
+        <v>628</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -24454,52 +24640,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>566</v>
+        <v>628</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>568</v>
+        <v>630</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>569</v>
+        <v>631</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>570</v>
+        <v>632</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>578</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>579</v>
+        <v>641</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>580</v>
+        <v>642</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -24522,53 +24708,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>580</v>
+        <v>642</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>587</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -24591,43 +24777,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -24635,7 +24821,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>568</v>
+        <v>630</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -24658,43 +24844,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>568</v>
+        <v>630</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -24702,7 +24888,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>569</v>
+        <v>631</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -24725,43 +24911,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>569</v>
+        <v>631</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -24769,7 +24955,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>570</v>
+        <v>632</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -24792,43 +24978,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>570</v>
+        <v>632</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -24836,7 +25022,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -24859,43 +25045,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -24903,7 +25089,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -24926,43 +25112,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -24970,7 +25156,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -24993,43 +25179,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -25037,7 +25223,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -25060,43 +25246,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -25104,7 +25290,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -25127,43 +25313,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -25171,7 +25357,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -25194,43 +25380,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -25238,7 +25424,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -25261,43 +25447,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -25305,7 +25491,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -25328,7 +25514,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -25341,10 +25527,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -25352,7 +25538,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>588</v>
+        <v>650</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -25375,14 +25561,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>588</v>
+        <v>650</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>589</v>
+        <v>651</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -25397,7 +25583,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -25420,7 +25606,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -25440,7 +25626,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>591</v>
+        <v>653</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -25463,7 +25649,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>591</v>
+        <v>653</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -25483,7 +25669,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>592</v>
+        <v>654</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -25506,7 +25692,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>592</v>
+        <v>654</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -25524,11 +25710,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>593</v>
+        <v>655</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -25551,14 +25737,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>594</v>
+        <v>656</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -25581,14 +25767,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -25611,14 +25797,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -25641,14 +25827,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -25671,14 +25857,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -25701,14 +25887,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -25731,10 +25917,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -25751,7 +25937,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>588</v>
+        <v>650</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -25774,7 +25960,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>588</v>
+        <v>650</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -25792,7 +25978,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -25815,7 +26001,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -25833,7 +26019,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>591</v>
+        <v>653</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -25856,14 +26042,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>591</v>
+        <v>653</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>592</v>
+        <v>654</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -25886,14 +26072,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>592</v>
+        <v>654</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>596</v>
+        <v>658</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -25916,24 +26102,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>596</v>
+        <v>658</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>597</v>
+        <v>659</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>598</v>
+        <v>660</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>599</v>
+        <v>661</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -25956,7 +26142,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>599</v>
+        <v>661</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -25965,7 +26151,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>600</v>
+        <v>662</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -25988,14 +26174,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>600</v>
+        <v>662</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>601</v>
+        <v>663</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -26003,7 +26189,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>602</v>
+        <v>664</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -26026,7 +26212,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>602</v>
+        <v>664</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -26035,7 +26221,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>603</v>
+        <v>665</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -26058,14 +26244,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>603</v>
+        <v>665</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>604</v>
+        <v>666</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -26073,7 +26259,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>605</v>
+        <v>667</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -26096,7 +26282,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>605</v>
+        <v>667</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -26105,7 +26291,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>606</v>
+        <v>668</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -26128,24 +26314,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>606</v>
+        <v>668</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>607</v>
+        <v>669</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>608</v>
+        <v>670</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>609</v>
+        <v>671</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -26168,7 +26354,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>609</v>
+        <v>671</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -26177,7 +26363,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>610</v>
+        <v>672</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -26200,22 +26386,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>610</v>
+        <v>672</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>611</v>
+        <v>673</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -26223,7 +26409,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>612</v>
+        <v>674</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -26246,7 +26432,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>612</v>
+        <v>674</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -26259,7 +26445,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>613</v>
+        <v>675</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -26282,32 +26468,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>613</v>
+        <v>675</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>614</v>
+        <v>676</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>615</v>
+        <v>677</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>616</v>
+        <v>678</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -26330,7 +26516,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>616</v>
+        <v>678</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -26339,7 +26525,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>617</v>
+        <v>679</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -26362,14 +26548,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>617</v>
+        <v>679</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>618</v>
+        <v>680</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -26377,7 +26563,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>619</v>
+        <v>681</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -26400,14 +26586,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>619</v>
+        <v>681</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>620</v>
+        <v>682</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -26430,12 +26616,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>620</v>
+        <v>682</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>621</v>
+        <v>683</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -26463,7 +26649,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>622</v>
+        <v>684</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -26490,13 +26676,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>623</v>
+        <v>685</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>624</v>
+        <v>686</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -26524,7 +26710,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>625</v>
+        <v>687</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -26636,7 +26822,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>626</v>
+        <v>688</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -26664,7 +26850,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>627</v>
+        <v>689</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -26692,7 +26878,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>628</v>
+        <v>690</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -37191,13 +37377,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:DC38"/>
+  <dimension ref="A30:DO71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>458</v>
       </c>
@@ -37205,7 +37391,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:119" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>460</v>
       </c>
@@ -37216,19 +37402,19 @@
         <v>460</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>461</v>
@@ -37237,1293 +37423,1860 @@
         <v>461</v>
       </c>
       <c r="L31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="R31" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="V31" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="W31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="X31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="Y31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="AA31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="AB31" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="AC31" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="AD31" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="AE31" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="AF31" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AG31" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AI31" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AK31" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="AE31" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AF31" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AG31" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AH31" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AI31" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="AL31" s="1" t="s">
         <v>466</v>
       </c>
       <c r="AM31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AV31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="AW31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="AX31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="AY31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="AZ31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="BB31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AT31" s="1" t="s">
+      <c r="BC31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AU31" s="1" t="s">
+      <c r="BD31" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AV31" s="1" t="s">
+      <c r="BE31" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AW31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AX31" s="1" t="s">
+      <c r="BG31" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AY31" s="1" t="s">
+      <c r="BH31" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="BI31" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="BJ31" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="BB31" s="1" t="s">
+      <c r="BK31" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="BL31" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="BD31" s="1" t="s">
+      <c r="BM31" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="BE31" s="1" t="s">
+      <c r="BN31" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="BO31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BF31" s="1" t="s">
+      <c r="BP31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BG31" s="1" t="s">
+      <c r="BQ31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BH31" s="1" t="s">
+      <c r="BR31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BI31" s="1" t="s">
+      <c r="BS31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BJ31" s="1" t="s">
+      <c r="BT31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BK31" s="1" t="s">
+      <c r="BU31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BL31" s="1" t="s">
+      <c r="BV31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BM31" s="1" t="s">
+      <c r="BW31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BN31" s="1" t="s">
+      <c r="BX31" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BO31" s="1" t="s">
+      <c r="BY31" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BP31" s="1" t="s">
+      <c r="BZ31" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BQ31" s="1" t="s">
+      <c r="CA31" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BR31" s="1" t="s">
+      <c r="CB31" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BS31" s="1" t="s">
+      <c r="CC31" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BT31" s="1" t="s">
+      <c r="CD31" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="BU31" s="1" t="s">
+      <c r="CE31" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="BV31" s="1" t="s">
+      <c r="CF31" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="BW31" s="1" t="s">
+      <c r="CG31" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="BX31" s="1" t="s">
+      <c r="CH31" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="BY31" s="1" t="s">
+      <c r="CI31" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="BZ31" s="1" t="s">
+      <c r="CJ31" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="CA31" s="1" t="s">
+      <c r="CK31" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="CB31" s="1" t="s">
+      <c r="CL31" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="CC31" s="1" t="s">
+      <c r="CM31" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="CD31" s="1" t="s">
+      <c r="CN31" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CE31" s="1" t="s">
+      <c r="CO31" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CF31" s="1" t="s">
+      <c r="CP31" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CG31" s="1" t="s">
+      <c r="CQ31" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CH31" s="1" t="s">
+      <c r="CR31" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CI31" s="1" t="s">
+      <c r="CS31" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CJ31" s="1" t="s">
+      <c r="CT31" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CK31" s="1" t="s">
+      <c r="CU31" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="CL31" s="1" t="s">
+      <c r="CV31" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="CM31" s="1" t="s">
+      <c r="CW31" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="CN31" s="1" t="s">
+      <c r="CX31" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="CO31" s="1" t="s">
+      <c r="CY31" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="CP31" s="1" t="s">
+      <c r="CZ31" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="DA31" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="CQ31" s="1" t="s">
+      <c r="DB31" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="CR31" s="1" t="s">
+      <c r="DC31" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="CS31" s="1" t="s">
+      <c r="DD31" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="CT31" s="1" t="s">
+      <c r="DE31" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="CU31" s="1" t="s">
+      <c r="DF31" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="CV31" s="1" t="s">
+      <c r="DG31" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="CW31" s="1" t="s">
+      <c r="DH31" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="CX31" s="1" t="s">
+      <c r="DI31" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="CY31" s="1" t="s">
+      <c r="DJ31" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="CZ31" s="1" t="s">
+      <c r="DK31" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="DL31" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="DA31" s="1" t="s">
+      <c r="DM31" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="DB31" s="1" t="s">
+      <c r="DN31" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="DC31" s="1" t="s">
+      <c r="DO31" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="C32" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="D32" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="E32" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="F32" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="G32" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="H32" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="I32" t="s">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="J32" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="K32" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="L32" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="M32" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="N32" t="s">
-        <v>497</v>
+        <v>542</v>
       </c>
       <c r="O32" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="P32" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="Q32" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="R32" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="S32" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="T32" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="U32" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="V32" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="W32" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="X32" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="Y32" t="s">
-        <v>497</v>
+        <v>542</v>
       </c>
       <c r="Z32" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="AA32" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="AB32" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="AC32" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="AD32" t="s">
-        <v>502</v>
+        <v>549</v>
       </c>
       <c r="AE32" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="AF32" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="AG32" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="AH32" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="AI32" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="AJ32" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="AK32" t="s">
-        <v>508</v>
+        <v>553</v>
       </c>
       <c r="AL32" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="AM32" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="AN32" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="AO32" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="AP32" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="AQ32" t="s">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="AR32" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="AS32" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="AT32" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="AU32" t="s">
-        <v>485</v>
+        <v>562</v>
       </c>
       <c r="AV32" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="AW32" t="s">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="AX32" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="AY32" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="AZ32" t="s">
-        <v>498</v>
+        <v>565</v>
       </c>
       <c r="BA32" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="BB32" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="BC32" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="BD32" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="BE32" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="BF32" t="s">
-        <v>485</v>
+        <v>567</v>
       </c>
       <c r="BG32" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="BH32" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="BI32" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="BJ32" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="BK32" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="BL32" t="s">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="BM32" t="s">
-        <v>521</v>
+        <v>571</v>
       </c>
       <c r="BN32" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="BO32" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="BP32" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="BQ32" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="BR32" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="BS32" t="s">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="BT32" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="BU32" t="s">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="BV32" t="s">
-        <v>524</v>
+        <v>573</v>
       </c>
       <c r="BW32" t="s">
-        <v>525</v>
+        <v>574</v>
       </c>
       <c r="BX32" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="BY32" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="BZ32" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="CA32" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="CB32" t="s">
-        <v>497</v>
+        <v>544</v>
       </c>
       <c r="CC32" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="CD32" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="CE32" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="CF32" t="s">
-        <v>533</v>
+        <v>581</v>
       </c>
       <c r="CG32" t="s">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="CH32" t="s">
-        <v>496</v>
+        <v>584</v>
       </c>
       <c r="CI32" t="s">
-        <v>497</v>
+        <v>585</v>
       </c>
       <c r="CJ32" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="CK32" t="s">
-        <v>536</v>
+        <v>586</v>
       </c>
       <c r="CL32" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="CM32" t="s">
-        <v>496</v>
+        <v>587</v>
       </c>
       <c r="CN32" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="CO32" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="CP32" t="s">
-        <v>485</v>
+        <v>590</v>
       </c>
       <c r="CQ32" t="s">
-        <v>495</v>
+        <v>542</v>
       </c>
       <c r="CR32" t="s">
-        <v>496</v>
+        <v>543</v>
       </c>
       <c r="CS32" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="CT32" t="s">
-        <v>490</v>
+        <v>592</v>
       </c>
       <c r="CU32" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="CV32" t="s">
-        <v>495</v>
+        <v>595</v>
       </c>
       <c r="CW32" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="CX32" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="CY32" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="CZ32" t="s">
-        <v>485</v>
+        <v>574</v>
       </c>
       <c r="DA32" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="DB32" t="s">
-        <v>495</v>
+        <v>542</v>
       </c>
       <c r="DC32" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="33" spans="1:107" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>597</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>534</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>518</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>549</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>542</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>543</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>544</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>534</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>518</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>549</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>542</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C33" t="s">
-        <v>488</v>
-      </c>
-      <c r="D33" t="s">
-        <v>488</v>
-      </c>
-      <c r="F33" t="s">
-        <v>488</v>
-      </c>
-      <c r="G33" t="s">
-        <v>488</v>
-      </c>
       <c r="H33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="I33" t="s">
-        <v>488</v>
-      </c>
-      <c r="J33" t="s">
-        <v>488</v>
-      </c>
-      <c r="K33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="L33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="M33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="N33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="O33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="P33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="Q33" t="s">
-        <v>488</v>
-      </c>
-      <c r="R33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="S33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="T33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="U33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="V33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="W33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="X33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="Y33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="Z33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AA33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AB33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AC33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AD33" t="s">
-        <v>488</v>
+        <v>532</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>532</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>532</v>
       </c>
       <c r="AG33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AH33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AI33" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="AJ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AK33" t="s">
-        <v>509</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>488</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>488</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>488</v>
+        <v>532</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>532</v>
       </c>
       <c r="AQ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AR33" t="s">
-        <v>488</v>
+        <v>559</v>
       </c>
       <c r="AS33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AT33" t="s">
-        <v>507</v>
+        <v>561</v>
       </c>
       <c r="AU33" t="s">
-        <v>488</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AW33" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="AX33" t="s">
-        <v>488</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="AZ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BA33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BB33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BC33" t="s">
-        <v>488</v>
+        <v>559</v>
       </c>
       <c r="BD33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BE33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BF33" t="s">
-        <v>488</v>
+        <v>559</v>
       </c>
       <c r="BG33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BH33" t="s">
-        <v>488</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BJ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BK33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BL33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BM33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BN33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BO33" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="BP33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BQ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BR33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BS33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BT33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BU33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BV33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BW33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BX33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="BY33" t="s">
-        <v>488</v>
+        <v>577</v>
       </c>
       <c r="BZ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CA33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CB33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CC33" t="s">
-        <v>488</v>
+        <v>532</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>532</v>
       </c>
       <c r="CE33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CF33" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="CG33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CH33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CI33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CJ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CK33" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="CL33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CM33" t="s">
-        <v>488</v>
-      </c>
-      <c r="CN33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CO33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CP33" t="s">
-        <v>488</v>
+        <v>591</v>
       </c>
       <c r="CQ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CR33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CS33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CT33" t="s">
-        <v>488</v>
-      </c>
-      <c r="CU33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CV33" t="s">
-        <v>488</v>
+        <v>559</v>
       </c>
       <c r="CW33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CX33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CY33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="CZ33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="DA33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="DB33" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="DC33" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="34" spans="1:107" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+      <c r="DD33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DG33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DH33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DI33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DJ33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DK33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DL33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DM33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DN33" t="s">
+        <v>532</v>
+      </c>
+      <c r="DO33" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C34" t="s">
-        <v>489</v>
-      </c>
-      <c r="D34" t="s">
-        <v>491</v>
-      </c>
-      <c r="F34" t="s">
-        <v>489</v>
-      </c>
-      <c r="G34" t="s">
-        <v>491</v>
-      </c>
       <c r="H34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="I34" t="s">
-        <v>491</v>
-      </c>
-      <c r="J34" t="s">
-        <v>491</v>
-      </c>
-      <c r="K34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="L34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="M34" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="N34" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="O34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="P34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="Q34" t="s">
-        <v>489</v>
-      </c>
-      <c r="R34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="S34" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="T34" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="U34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="V34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="W34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="X34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="Y34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="Z34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="AA34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="AB34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AC34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AD34" t="s">
-        <v>489</v>
+        <v>533</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>533</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>533</v>
       </c>
       <c r="AG34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AH34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AI34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AJ34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AK34" t="s">
-        <v>489</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>489</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>489</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AP34" t="s">
-        <v>489</v>
+        <v>533</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>533</v>
       </c>
       <c r="AR34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AS34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AT34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AU34" t="s">
-        <v>489</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AW34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AX34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AY34" t="s">
-        <v>489</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BA34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BB34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="BC34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="BD34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BE34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BF34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BG34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BH34" t="s">
-        <v>489</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="BJ34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="BK34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="BL34" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="BM34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="BN34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BO34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BP34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BQ34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BR34" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="BS34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="BT34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="BU34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="BV34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="BW34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="BX34" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="BY34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="BZ34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="CA34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="CB34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="CC34" t="s">
-        <v>531</v>
+        <v>533</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>533</v>
       </c>
       <c r="CE34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="CF34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="CG34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CH34" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="CI34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CJ34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CK34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CL34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CM34" t="s">
-        <v>526</v>
-      </c>
-      <c r="CN34" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="CO34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CP34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CQ34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CR34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CS34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CT34" t="s">
-        <v>526</v>
-      </c>
-      <c r="CU34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CV34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CW34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CX34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CY34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="CZ34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="DA34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="DB34" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="DC34" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:107" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+      <c r="DD34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DE34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DG34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DH34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DI34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DJ34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DK34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DL34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DM34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DN34" t="s">
+        <v>583</v>
+      </c>
+      <c r="DO34" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="36" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E36" t="s">
-        <v>492</v>
-      </c>
-      <c r="V36" t="s">
-        <v>492</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>503</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>503</v>
-      </c>
-      <c r="BE36" t="s">
-        <v>511</v>
-      </c>
-      <c r="BF36" t="s">
-        <v>518</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>518</v>
-      </c>
-      <c r="CD36" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="37" spans="1:107" x14ac:dyDescent="0.3">
+      <c r="DF36" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B37" t="s">
-        <v>486</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>500</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>500</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>500</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>511</v>
-      </c>
-      <c r="CD37" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="38" spans="1:107" x14ac:dyDescent="0.3">
+      <c r="BD37" t="s">
+        <v>552</v>
+      </c>
+      <c r="DF37" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="38" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="DF38" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B40" t="s">
+        <v>519</v>
+      </c>
+      <c r="C40" t="s">
+        <v>519</v>
+      </c>
+      <c r="D40" t="s">
+        <v>519</v>
+      </c>
+      <c r="E40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F40" t="s">
+        <v>530</v>
+      </c>
+      <c r="G40" t="s">
+        <v>530</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>530</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>530</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>530</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>529</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>529</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>563</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>530</v>
+      </c>
+      <c r="CN40" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="42" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B42" t="s">
+        <v>520</v>
+      </c>
+      <c r="C42" t="s">
+        <v>520</v>
+      </c>
+      <c r="D42" t="s">
+        <v>529</v>
+      </c>
+      <c r="E42" t="s">
+        <v>520</v>
+      </c>
+      <c r="F42" t="s">
+        <v>520</v>
+      </c>
+      <c r="G42" t="s">
+        <v>529</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>529</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="43" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B43" t="s">
+        <v>521</v>
+      </c>
+      <c r="C43" t="s">
+        <v>521</v>
+      </c>
+      <c r="D43" t="s">
+        <v>521</v>
+      </c>
+      <c r="E43" t="s">
+        <v>521</v>
+      </c>
+      <c r="F43" t="s">
+        <v>521</v>
+      </c>
+      <c r="G43" t="s">
+        <v>521</v>
+      </c>
+      <c r="BI43" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J44" t="s">
+        <v>536</v>
+      </c>
+      <c r="K44" t="s">
+        <v>536</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>536</v>
+      </c>
+      <c r="BO44" t="s">
+        <v>523</v>
+      </c>
+      <c r="BP44" t="s">
+        <v>563</v>
+      </c>
+      <c r="BQ44" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="BO45" t="s">
+        <v>525</v>
+      </c>
+      <c r="BP45" t="s">
+        <v>525</v>
+      </c>
+      <c r="BQ45" t="s">
+        <v>525</v>
+      </c>
+      <c r="BX45" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="46" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="BX46" t="s">
+        <v>575</v>
+      </c>
+      <c r="CN46" t="s">
+        <v>575</v>
+      </c>
+      <c r="CU46" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="47" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BX47" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="CD48" t="s">
+        <v>578</v>
+      </c>
+      <c r="CU48" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="CD49" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="50" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="CD50" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="51" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>554</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>554</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>554</v>
+      </c>
+      <c r="CN51" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>552</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>552</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>552</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>552</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>552</v>
+      </c>
+      <c r="CN52" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="CU53" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="54" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="DA54" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="AE38" t="s">
-        <v>501</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>501</v>
-      </c>
-      <c r="CD38" t="s">
-        <v>501</v>
+      <c r="J55" t="s">
+        <v>537</v>
+      </c>
+      <c r="K55" t="s">
+        <v>537</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>537</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>537</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>537</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="56" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J56" t="s">
+        <v>538</v>
+      </c>
+      <c r="K56" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="57" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J57" t="s">
+        <v>539</v>
+      </c>
+      <c r="K57" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="58" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="R58" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="59" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="R59" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="60" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R60" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="W61" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="62" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="63" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>555</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>555</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>555</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="64" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B65" t="s">
+        <v>522</v>
+      </c>
+      <c r="C65" t="s">
+        <v>522</v>
+      </c>
+      <c r="D65" t="s">
+        <v>522</v>
+      </c>
+      <c r="E65" t="s">
+        <v>522</v>
+      </c>
+      <c r="F65" t="s">
+        <v>522</v>
+      </c>
+      <c r="G65" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B66" t="s">
+        <v>523</v>
+      </c>
+      <c r="C66" t="s">
+        <v>523</v>
+      </c>
+      <c r="D66" t="s">
+        <v>523</v>
+      </c>
+      <c r="E66" t="s">
+        <v>523</v>
+      </c>
+      <c r="F66" t="s">
+        <v>523</v>
+      </c>
+      <c r="G66" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B67" t="s">
+        <v>524</v>
+      </c>
+      <c r="C67" t="s">
+        <v>524</v>
+      </c>
+      <c r="D67" t="s">
+        <v>524</v>
+      </c>
+      <c r="E67" t="s">
+        <v>524</v>
+      </c>
+      <c r="F67" t="s">
+        <v>524</v>
+      </c>
+      <c r="G67" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B68" t="s">
+        <v>525</v>
+      </c>
+      <c r="C68" t="s">
+        <v>525</v>
+      </c>
+      <c r="D68" t="s">
+        <v>525</v>
+      </c>
+      <c r="E68" t="s">
+        <v>525</v>
+      </c>
+      <c r="F68" t="s">
+        <v>525</v>
+      </c>
+      <c r="G68" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B69" t="s">
+        <v>526</v>
+      </c>
+      <c r="C69" t="s">
+        <v>526</v>
+      </c>
+      <c r="D69" t="s">
+        <v>526</v>
+      </c>
+      <c r="E69" t="s">
+        <v>526</v>
+      </c>
+      <c r="F69" t="s">
+        <v>526</v>
+      </c>
+      <c r="G69" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B70" t="s">
+        <v>527</v>
+      </c>
+      <c r="C70" t="s">
+        <v>527</v>
+      </c>
+      <c r="D70" t="s">
+        <v>527</v>
+      </c>
+      <c r="E70" t="s">
+        <v>527</v>
+      </c>
+      <c r="F70" t="s">
+        <v>527</v>
+      </c>
+      <c r="G70" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B71" t="s">
+        <v>528</v>
+      </c>
+      <c r="C71" t="s">
+        <v>528</v>
+      </c>
+      <c r="D71" t="s">
+        <v>528</v>
+      </c>
+      <c r="E71" t="s">
+        <v>528</v>
+      </c>
+      <c r="F71" t="s">
+        <v>528</v>
+      </c>
+      <c r="G71" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
